--- a/DynamoParses/Templates/BlankTemplate.xlsx
+++ b/DynamoParses/Templates/BlankTemplate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="10710" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="10710" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="COPAverages" sheetId="2" r:id="rId1"/>
@@ -31,12 +31,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Experiments!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Patients!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="0" calcMode="manual"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="28">
   <si>
     <t>ExperimentId</t>
   </si>
@@ -56,6 +56,18 @@
     <t>Value</t>
   </si>
   <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>PersonId</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t>BodyPart</t>
   </si>
   <si>
@@ -71,27 +83,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Person</t>
-  </si>
-  <si>
-    <t>PersonId</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Oczy</t>
-  </si>
-  <si>
-    <t>Buty</t>
-  </si>
-  <si>
-    <t>NumerProby</t>
-  </si>
-  <si>
     <t>FirstName</t>
   </si>
   <si>
@@ -101,6 +92,9 @@
     <t>Sex</t>
   </si>
   <si>
+    <t>Body Part</t>
+  </si>
+  <si>
     <t>Bodypart</t>
   </si>
   <si>
@@ -110,7 +104,22 @@
     <t>SD</t>
   </si>
   <si>
-    <t>Body Part</t>
+    <t>Experiment Title</t>
+  </si>
+  <si>
+    <t>Eyes</t>
+  </si>
+  <si>
+    <t>Shoes</t>
+  </si>
+  <si>
+    <t>TrialNo</t>
+  </si>
+  <si>
+    <t>RepeatNo</t>
+  </si>
+  <si>
+    <t>Patient Name</t>
   </si>
 </sst>
 </file>
@@ -145,12 +154,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -450,13 +460,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+  <dimension ref="A1:N1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="57.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,82 +534,6 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -549,13 +543,91 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="9.140625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
+      <c r="J1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -567,22 +639,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -593,36 +665,39 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -633,167 +708,270 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
+      <c r="I1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -804,31 +982,52 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -837,75 +1036,117 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+  <dimension ref="A1:O1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="K1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-</worksheet>
 </file>